--- a/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010/Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010/Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles espèces vivantes sont régulièrement définies chaque année.
 L'apparition d'une nouvelle espèce dans la nomenclature peut se faire de trois manières principales :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,39 +532,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces vivantes décrites en 2006
-Apiacées (Ombellifères)
-Peucedanum kyriakae Hadjikyriakou (G.) &amp; Hadjikyriakou (A.G.)
-Découvert à Chypre.
-Arécacées
-Coccothrinax torrida Morici et Verdecia, 2006
-Palmier découvert à Cuba[1].
-Boraginacées
-Cynoglossum baeticum Sutory, 2006
-Découverte dans la Sierra de Segura en Espagne[2].
-Brassicacées (Crucifères)
-Matthiola trojana T. Dirmenci, F. Satıl &amp; G. Tümen, 2006
-Découverte en Turquie
-Physaria pulvinata O'Kane Jr. &amp; Reveal, 2006
-Découverte dans le Colorado[3].
-Cypéracées
-Kyllinga beninensis Samain, Reynders &amp; Goetghebeur, 2006
-Découverte au Bénin[4].
-Euphorbiacées
-Acalypha chuniana Qin, Ye (Yu-Shi), Xing &amp; Ye (Hua-Gu), 2006
-Découverte dans la province de Hainan (Chine) [5].
-Géraniacées
-Geranium kalenderianum Ilçim et Behçet, 2006
-Découvert en Turquie[6].
-Marantacées
-Schumannianthus monophyllus, 2006
-Découverte à Bornéo[7].
-Orchidées
-Lecanorchis amethystea, 2006
-Découverte au Japon.
-Poacées
-Arundinaria appalachiana Triplett, Weakley et Clark, 2006
-Espèce de bambou découverte aux États-Unis [8].</t>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Apiacées (Ombellifères)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Peucedanum kyriakae Hadjikyriakou (G.) &amp; Hadjikyriakou (A.G.)
+Découvert à Chypre.</t>
         </is>
       </c>
     </row>
@@ -562,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,110 +568,1219 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Arécacées</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Coccothrinax torrida Morici et Verdecia, 2006
+Palmier découvert à Cuba.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Boraginacées</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cynoglossum baeticum Sutory, 2006
+Découverte dans la Sierra de Segura en Espagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Brassicacées (Crucifères)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Matthiola trojana T. Dirmenci, F. Satıl &amp; G. Tümen, 2006
+Découverte en Turquie
+Physaria pulvinata O'Kane Jr. &amp; Reveal, 2006
+Découverte dans le Colorado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cypéracées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kyllinga beninensis Samain, Reynders &amp; Goetghebeur, 2006
+Découverte au Bénin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Euphorbiacées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Acalypha chuniana Qin, Ye (Yu-Shi), Xing &amp; Ye (Hua-Gu), 2006
+Découverte dans la province de Hainan (Chine) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Géraniacées</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Geranium kalenderianum Ilçim et Behçet, 2006
+Découvert en Turquie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Marantacées</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Schumannianthus monophyllus, 2006
+Découverte à Bornéo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Orchidées</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lecanorchis amethystea, 2006
+Découverte au Japon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2006</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Poacées</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Arundinaria appalachiana Triplett, Weakley et Clark, 2006
+Espèce de bambou découverte aux États-Unis .</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2007
-Acanthacées
-Barleria samhanensis Knees, Laser, Miller et Patzelt, 2007
-Découverte à Oman[9].
-Amaranthacées (comprenant les Chenopodiacées)
-Tecticornia bibenda K. A. Sheph. &amp; S. J. van Leeuwen, 2007
-Découverte en Australie[10].
-Apiacées (Ombellifères)
-Ferula mervynii Sağiroğlu et Duman, 2007
-Découverte en Anatolie (Turquie) [11].
-Astéracées (Composées)
-Centaurea kizildaghensis Uzunhisarcikli Doğan et Duman, 2007
-Découverte en Turquie[12].
-Brassicacées (Crucifères)
-Aethionema rhodopaeum Pavlova, 2007
-Découverte dans les monts Rhodopes en Bulgarie[13].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Acanthacées</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Barleria samhanensis Knees, Laser, Miller et Patzelt, 2007
+Découverte à Oman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Amaranthacées (comprenant les Chenopodiacées)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tecticornia bibenda K. A. Sheph. &amp; S. J. van Leeuwen, 2007
+Découverte en Australie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Apiacées (Ombellifères)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ferula mervynii Sağiroğlu et Duman, 2007
+Découverte en Anatolie (Turquie) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Astéracées (Composées)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Centaurea kizildaghensis Uzunhisarcikli Doğan et Duman, 2007
+Découverte en Turquie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Brassicacées (Crucifères)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Aethionema rhodopaeum Pavlova, 2007
+Découverte dans les monts Rhodopes en Bulgarie.
 Physoptychis purpurascens Çelik &amp; Akpulat, 2007
 Découverte en Turquie.
 Streptanthus longisiliqus Clifton et Buck, 2007
-Découverte en Californie[14].
-Caryophyllacées
-Heliosperma oliverae Niketić et Stevanović, 2007
-Découverte en Serbie et Montenegro[15].
-Cistacées
-Helianthemum sicanorum Brullo, Giusso del Galdo et Sciandrello, 2007
-Découverte en Sicile[16].
-Éricacées
-Paphia paniensis Venter &amp; Munzinger, 2007
-Découverte sur le mont Panié en Nouvelle-Calédonie [17].
-Gentianacées
-Gentiana khammouanensis Hul, 2007
-Découverte au Laos[18].
-Gunnéracées
-Gunnera morae Wanntorp et Klackenberg, 2006
-Découverte en Colombie.
-Hyacinthacées
-Muscari turcicum Uysal, Ertuğrul, Dural et Küçüködük, 2007
-Découverte en Anatolie (Turquie) [19].
-Iridacées
-Iris orjenii Bräuchler et Cikovac, 2007
-Découverte en Montenegro[20].
-Malvacées
-Lavatera valdesii Molero Briones et Montserrat Martí , 2007
-Découverte au Maroc[21].
-Orchidacées
-Nematoceras sulcatum Clements &amp; Jones, 2007
-Découverte dans l'île Macquarie (Australie) [22].
+Découverte en Californie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Caryophyllacées</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Heliosperma oliverae Niketić et Stevanović, 2007
+Découverte en Serbie et Montenegro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cistacées</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Helianthemum sicanorum Brullo, Giusso del Galdo et Sciandrello, 2007
+Découverte en Sicile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Éricacées</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Paphia paniensis Venter &amp; Munzinger, 2007
+Découverte sur le mont Panié en Nouvelle-Calédonie .</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Gentianacées</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Gentiana khammouanensis Hul, 2007
+Découverte au Laos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Gunnéracées</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Gunnera morae Wanntorp et Klackenberg, 2006
+Découverte en Colombie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hyacinthacées</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Muscari turcicum Uysal, Ertuğrul, Dural et Küçüködük, 2007
+Découverte en Anatolie (Turquie) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Iridacées</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Iris orjenii Bräuchler et Cikovac, 2007
+Découverte en Montenegro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Malvacées</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Lavatera valdesii Molero Briones et Montserrat Martí , 2007
+Découverte au Maroc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Orchidacées</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nematoceras sulcatum Clements &amp; Jones, 2007
+Découverte dans l'île Macquarie (Australie) .
 Platanthera yosemitensis Colwell, Sheviak et Moore, 2007
-Découverte en Californie en 1923, mais décrite seulement en 2007[23].
-Poacées (Graminées)
-Holcus azoricus Menezies de Sequeira et Castrov, 2007
-Découverte dans les Açores[24].
-Rubiacées
-Leptactinia rheophytica Sonké, Neuba, Kenfack et de Block, 2007
-Rhéophyte découverte au Rio Muni (Guinée équatoriale).
-Simaroubacées
-Ailanthus vietnamensis H. V. Sam et Nooteboom, 2007
-Découverte dans le Parc national de Cuc Phuong, au Vietnam[25].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Découverte en Californie en 1923, mais décrite seulement en 2007.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Poacées (Graminées)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Holcus azoricus Menezies de Sequeira et Castrov, 2007
+Découverte dans les Açores.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Rubiacées</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Leptactinia rheophytica Sonké, Neuba, Kenfack et de Block, 2007
+Rhéophyte découverte au Rio Muni (Guinée équatoriale).</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2007</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Simaroubacées</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Ailanthus vietnamensis H. V. Sam et Nooteboom, 2007
+Découverte dans le Parc national de Cuc Phuong, au Vietnam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2008
-Arecacées (Palmiers)
-Tahina spectabilis Dransfield, Rakotoarinivo, Baker, Bayton, Fisher, Horn, Leroy et Metz, 2008
-Palmier coryphoidé de la tribu des cluniophoenicées découvert à Madagascar par Xavier Metz. La découverte de cette espèce nécessite la création du nouveau genre Tahina, dont le nom est issu du malgache signifiant "béni", "protégé" et est aussi porté par Anne-Tahina Metz, fille du découvreur de l'espèce [26].
-Brassicacées (Crucifères)
-Polypsecadium apolobamba Al-Shehbaz &amp; Fuentes, 2008
-Découverte en Bolivie[27].
-Caryophyllacées
-Silene bitlisensis Tugay &amp; Ertuğrul, 2008
-Découverte en Anatolie (Turquie) [28].
-Gentianacées
-Swertia changii Chen (Chih-Hsiung), Chen (Chien-Fan) &amp; Yang, 2008
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2008</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Arecacées (Palmiers)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tahina spectabilis Dransfield, Rakotoarinivo, Baker, Bayton, Fisher, Horn, Leroy et Metz, 2008
+Palmier coryphoidé de la tribu des cluniophoenicées découvert à Madagascar par Xavier Metz. La découverte de cette espèce nécessite la création du nouveau genre Tahina, dont le nom est issu du malgache signifiant "béni", "protégé" et est aussi porté par Anne-Tahina Metz, fille du découvreur de l'espèce .</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2008</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Brassicacées (Crucifères)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Polypsecadium apolobamba Al-Shehbaz &amp; Fuentes, 2008
+Découverte en Bolivie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2008</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Caryophyllacées</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Silene bitlisensis Tugay &amp; Ertuğrul, 2008
+Découverte en Anatolie (Turquie) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2006_et_2010</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2008</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Gentianacées</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Swertia changii Chen (Chih-Hsiung), Chen (Chien-Fan) &amp; Yang, 2008
 Découverte à Taïwan.</t>
         </is>
       </c>
